--- a/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$buy$$_buy_fv_3__sold_basic$$.xlsx
+++ b/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$buy$$_buy_fv_3__sold_basic$$.xlsx
@@ -623,7 +623,7 @@
         <v>20090326</v>
       </c>
       <c r="D12">
-        <v>1376.726935925847</v>
+        <v>1376.726935925846</v>
       </c>
       <c r="E12">
         <v>2407.762</v>
@@ -843,7 +843,7 @@
         <v>20090618</v>
       </c>
       <c r="D23">
-        <v>985.8708810806396</v>
+        <v>985.8708810806397</v>
       </c>
       <c r="E23">
         <v>3014.437</v>
@@ -883,7 +883,7 @@
         <v>20090702</v>
       </c>
       <c r="D25">
-        <v>864.1985683226251</v>
+        <v>864.198568322625</v>
       </c>
       <c r="E25">
         <v>3248.204</v>
@@ -923,7 +923,7 @@
         <v>20090716</v>
       </c>
       <c r="D27">
-        <v>742.4033328134103</v>
+        <v>742.4033328134102</v>
       </c>
       <c r="E27">
         <v>3516.778</v>
@@ -963,7 +963,7 @@
         <v>20090730</v>
       </c>
       <c r="D29">
-        <v>745.2362637272704</v>
+        <v>745.2362637272705</v>
       </c>
       <c r="E29">
         <v>3587.047</v>
@@ -1023,7 +1023,7 @@
         <v>20090820</v>
       </c>
       <c r="D32">
-        <v>1349.101035481103</v>
+        <v>1349.101035481104</v>
       </c>
       <c r="E32">
         <v>3021.251</v>
@@ -1203,7 +1203,7 @@
         <v>20091105</v>
       </c>
       <c r="D41">
-        <v>980.6752444757883</v>
+        <v>980.6752444757881</v>
       </c>
       <c r="E41">
         <v>3458.865</v>
@@ -1223,7 +1223,7 @@
         <v>20091112</v>
       </c>
       <c r="D42">
-        <v>957.8833256481821</v>
+        <v>957.8833256481822</v>
       </c>
       <c r="E42">
         <v>3506.952</v>
@@ -1243,7 +1243,7 @@
         <v>20091119</v>
       </c>
       <c r="D43">
-        <v>889.5433698086138</v>
+        <v>889.5433698086136</v>
       </c>
       <c r="E43">
         <v>3638.073</v>
@@ -1883,7 +1883,7 @@
         <v>20100708</v>
       </c>
       <c r="D75">
-        <v>2830.363448098335</v>
+        <v>2830.363448098334</v>
       </c>
       <c r="E75">
         <v>2591.509</v>
@@ -1963,7 +1963,7 @@
         <v>20100805</v>
       </c>
       <c r="D79">
-        <v>2050.227383226786</v>
+        <v>2050.227383226787</v>
       </c>
       <c r="E79">
         <v>2874.66</v>
@@ -2483,7 +2483,7 @@
         <v>20110224</v>
       </c>
       <c r="D105">
-        <v>1570.031175010695</v>
+        <v>1570.031175010696</v>
       </c>
       <c r="E105">
         <v>3170.236</v>
@@ -2763,7 +2763,7 @@
         <v>20110602</v>
       </c>
       <c r="D119">
-        <v>1954.121623181989</v>
+        <v>1954.121623181988</v>
       </c>
       <c r="E119">
         <v>2970.634</v>
@@ -2963,7 +2963,7 @@
         <v>20110811</v>
       </c>
       <c r="D129">
-        <v>2392.798920679</v>
+        <v>2392.798920678999</v>
       </c>
       <c r="E129">
         <v>2779.715</v>
@@ -2983,7 +2983,7 @@
         <v>20110818</v>
       </c>
       <c r="D130">
-        <v>2134.582561715345</v>
+        <v>2134.582561715346</v>
       </c>
       <c r="E130">
         <v>2887.103</v>
@@ -3043,7 +3043,7 @@
         <v>20110908</v>
       </c>
       <c r="D133">
-        <v>2364.591946524622</v>
+        <v>2364.591946524621</v>
       </c>
       <c r="E133">
         <v>2788.832000000001</v>
@@ -3103,7 +3103,7 @@
         <v>20110929</v>
       </c>
       <c r="D136">
-        <v>2929.001409205761</v>
+        <v>2929.001409205762</v>
       </c>
       <c r="E136">
         <v>2593.559</v>
@@ -3183,7 +3183,7 @@
         <v>20111103</v>
       </c>
       <c r="D140">
-        <v>2432.186572415584</v>
+        <v>2432.186572415585</v>
       </c>
       <c r="E140">
         <v>2752.627</v>
@@ -3223,7 +3223,7 @@
         <v>20111117</v>
       </c>
       <c r="D142">
-        <v>2653.067912463809</v>
+        <v>2653.06791246381</v>
       </c>
       <c r="E142">
         <v>2671.953</v>
@@ -3243,7 +3243,7 @@
         <v>20111124</v>
       </c>
       <c r="D143">
-        <v>2992.203989732982</v>
+        <v>2992.203989732983</v>
       </c>
       <c r="E143">
         <v>2565.686</v>
@@ -3323,7 +3323,7 @@
         <v>20111222</v>
       </c>
       <c r="D147">
-        <v>3984.062852047057</v>
+        <v>3984.062852047058</v>
       </c>
       <c r="E147">
         <v>2325.27</v>
@@ -3343,7 +3343,7 @@
         <v>20111229</v>
       </c>
       <c r="D148">
-        <v>4118.871682737201</v>
+        <v>4118.871682737202</v>
       </c>
       <c r="E148">
         <v>2297.288</v>
@@ -3403,7 +3403,7 @@
         <v>20120119</v>
       </c>
       <c r="D151">
-        <v>3475.42204087268</v>
+        <v>3475.422040872681</v>
       </c>
       <c r="E151">
         <v>2423.857</v>
@@ -3563,7 +3563,7 @@
         <v>20120322</v>
       </c>
       <c r="D159">
-        <v>2786.884160828502</v>
+        <v>2786.884160828503</v>
       </c>
       <c r="E159">
         <v>2586.938</v>
@@ -3583,7 +3583,7 @@
         <v>20120329</v>
       </c>
       <c r="D160">
-        <v>3221.606765339007</v>
+        <v>3221.606765339008</v>
       </c>
       <c r="E160">
         <v>2463.688</v>
@@ -3663,7 +3663,7 @@
         <v>20120426</v>
       </c>
       <c r="D164">
-        <v>2622.050768596176</v>
+        <v>2622.050768596177</v>
       </c>
       <c r="E164">
         <v>2632.718</v>
@@ -3903,7 +3903,7 @@
         <v>20120719</v>
       </c>
       <c r="D176">
-        <v>3369.693969129735</v>
+        <v>3369.693969129734</v>
       </c>
       <c r="E176">
         <v>2407.443</v>
@@ -4003,7 +4003,7 @@
         <v>20120823</v>
       </c>
       <c r="D181">
-        <v>3830.600143478171</v>
+        <v>3830.60014347817</v>
       </c>
       <c r="E181">
         <v>2298.18</v>
@@ -4043,7 +4043,7 @@
         <v>20120906</v>
       </c>
       <c r="D183">
-        <v>4317.315176954298</v>
+        <v>4317.315176954297</v>
       </c>
       <c r="E183">
         <v>2204.436</v>
@@ -4223,7 +4223,7 @@
         <v>20121115</v>
       </c>
       <c r="D192">
-        <v>4185.399008691934</v>
+        <v>4185.399008691935</v>
       </c>
       <c r="E192">
         <v>2210.751</v>
@@ -4243,7 +4243,7 @@
         <v>20121122</v>
       </c>
       <c r="D193">
-        <v>4346.044662399923</v>
+        <v>4346.044662399924</v>
       </c>
       <c r="E193">
         <v>2181.179</v>
@@ -4283,7 +4283,7 @@
         <v>20121206</v>
       </c>
       <c r="D195">
-        <v>4178.869261986785</v>
+        <v>4178.869261986786</v>
       </c>
       <c r="E195">
         <v>2205.605</v>
@@ -4483,7 +4483,7 @@
         <v>20130228</v>
       </c>
       <c r="D205">
-        <v>2377.53467207899</v>
+        <v>2377.534672078989</v>
       </c>
       <c r="E205">
         <v>2611.94</v>
@@ -4603,7 +4603,7 @@
         <v>20130418</v>
       </c>
       <c r="D211">
-        <v>2900.77969299718</v>
+        <v>2900.779692997179</v>
       </c>
       <c r="E211">
         <v>2440.707000000001</v>
@@ -4623,7 +4623,7 @@
         <v>20130425</v>
       </c>
       <c r="D212">
-        <v>2739.163294949624</v>
+        <v>2739.163294949623</v>
       </c>
       <c r="E212">
         <v>2486.857</v>
@@ -4743,7 +4743,7 @@
         <v>20130606</v>
       </c>
       <c r="D218">
-        <v>2519.532982156769</v>
+        <v>2519.53298215677</v>
       </c>
       <c r="E218">
         <v>2552.817</v>
@@ -4823,7 +4823,7 @@
         <v>20130704</v>
       </c>
       <c r="D222">
-        <v>3982.343327724164</v>
+        <v>3982.343327724163</v>
       </c>
       <c r="E222">
         <v>2187.181</v>
@@ -4943,7 +4943,7 @@
         <v>20130815</v>
       </c>
       <c r="D228">
-        <v>3181.196100262859</v>
+        <v>3181.196100262858</v>
       </c>
       <c r="E228">
         <v>2348.839</v>
@@ -5123,7 +5123,7 @@
         <v>20131031</v>
       </c>
       <c r="D237">
-        <v>2948.024766754297</v>
+        <v>2948.024766754296</v>
       </c>
       <c r="E237">
         <v>2398.395</v>
@@ -5243,7 +5243,7 @@
         <v>20131212</v>
       </c>
       <c r="D243">
-        <v>2896.842641426666</v>
+        <v>2896.842641426667</v>
       </c>
       <c r="E243">
         <v>2406.766</v>
@@ -5283,7 +5283,7 @@
         <v>20131226</v>
       </c>
       <c r="D245">
-        <v>3311.358012570072</v>
+        <v>3311.358012570071</v>
       </c>
       <c r="E245">
         <v>2299.972</v>
@@ -5483,7 +5483,7 @@
         <v>20140313</v>
       </c>
       <c r="D255">
-        <v>4162.702641631448</v>
+        <v>4162.702641631447</v>
       </c>
       <c r="E255">
         <v>2119.547</v>
@@ -5503,7 +5503,7 @@
         <v>20140320</v>
       </c>
       <c r="D256">
-        <v>4174.652577990917</v>
+        <v>4174.652577990916</v>
       </c>
       <c r="E256">
         <v>2116.185</v>
@@ -5843,7 +5843,7 @@
         <v>20140724</v>
       </c>
       <c r="D273">
-        <v>3607.76639842864</v>
+        <v>3607.766398428639</v>
       </c>
       <c r="E273">
         <v>2199.833</v>
@@ -5903,7 +5903,7 @@
         <v>20140814</v>
       </c>
       <c r="D276">
-        <v>2921.913965324282</v>
+        <v>2921.913965324281</v>
       </c>
       <c r="E276">
         <v>2357.198</v>
@@ -5963,7 +5963,7 @@
         <v>20140904</v>
       </c>
       <c r="D279">
-        <v>2713.612374272255</v>
+        <v>2713.612374272254</v>
       </c>
       <c r="E279">
         <v>2411.934</v>
@@ -6023,7 +6023,7 @@
         <v>20140925</v>
       </c>
       <c r="D282">
-        <v>2563.525551628584</v>
+        <v>2563.525551628583</v>
       </c>
       <c r="E282">
         <v>2453.423</v>
@@ -6243,7 +6243,7 @@
         <v>20141218</v>
       </c>
       <c r="D293">
-        <v>936.1201201689041</v>
+        <v>936.120120168904</v>
       </c>
       <c r="E293">
         <v>3359.09</v>
@@ -6323,7 +6323,7 @@
         <v>20150122</v>
       </c>
       <c r="D297">
-        <v>817.2541159344452</v>
+        <v>817.2541159344451</v>
       </c>
       <c r="E297">
         <v>3551.052</v>
@@ -6363,7 +6363,7 @@
         <v>20150205</v>
       </c>
       <c r="D299">
-        <v>865.6858516653501</v>
+        <v>865.68585166535</v>
       </c>
       <c r="E299">
         <v>3487.951</v>
@@ -6383,7 +6383,7 @@
         <v>20150212</v>
       </c>
       <c r="D300">
-        <v>907.4554031647547</v>
+        <v>907.4554031647546</v>
       </c>
       <c r="E300">
         <v>3435.361</v>
@@ -6423,7 +6423,7 @@
         <v>20150305</v>
       </c>
       <c r="D302">
-        <v>851.5327599073167</v>
+        <v>851.5327599073169</v>
       </c>
       <c r="E302">
         <v>3513.249000000001</v>
@@ -6483,7 +6483,7 @@
         <v>20150326</v>
       </c>
       <c r="D305">
-        <v>648.3338785887257</v>
+        <v>648.3338785887258</v>
       </c>
       <c r="E305">
         <v>3921.745</v>
@@ -6743,7 +6743,7 @@
         <v>20150625</v>
       </c>
       <c r="D318">
-        <v>364.1844033744809</v>
+        <v>364.184403374481</v>
       </c>
       <c r="E318">
         <v>4906.2416</v>
@@ -6783,7 +6783,7 @@
         <v>20150709</v>
       </c>
       <c r="D320">
-        <v>910.479103544661</v>
+        <v>910.4791035446611</v>
       </c>
       <c r="E320">
         <v>3621.6804</v>
@@ -6843,7 +6843,7 @@
         <v>20150730</v>
       </c>
       <c r="D323">
-        <v>725.0344002484841</v>
+        <v>725.0344002484842</v>
       </c>
       <c r="E323">
         <v>3915.7795</v>
@@ -6883,7 +6883,7 @@
         <v>20150813</v>
       </c>
       <c r="D325">
-        <v>677.4867378751528</v>
+        <v>677.4867378751529</v>
       </c>
       <c r="E325">
         <v>4010.0129</v>
@@ -6983,7 +6983,7 @@
         <v>20150924</v>
       </c>
       <c r="D330">
-        <v>1246.909200183024</v>
+        <v>1246.909200183025</v>
       </c>
       <c r="E330">
         <v>3278.8962</v>
@@ -7083,7 +7083,7 @@
         <v>20151105</v>
       </c>
       <c r="D335">
-        <v>923.1661745898423</v>
+        <v>923.1661745898422</v>
       </c>
       <c r="E335">
         <v>3630.7817</v>
@@ -7123,7 +7123,7 @@
         <v>20151119</v>
       </c>
       <c r="D337">
-        <v>859.664705054663</v>
+        <v>859.6647050546629</v>
       </c>
       <c r="E337">
         <v>3725.622</v>
@@ -7163,7 +7163,7 @@
         <v>20151203</v>
       </c>
       <c r="D339">
-        <v>873.628175030292</v>
+        <v>873.6281750302921</v>
       </c>
       <c r="E339">
         <v>3709.5469</v>
@@ -7183,7 +7183,7 @@
         <v>20151210</v>
       </c>
       <c r="D340">
-        <v>930.3978770087446</v>
+        <v>930.3978770087447</v>
       </c>
       <c r="E340">
         <v>3634.366</v>
@@ -7203,7 +7203,7 @@
         <v>20151217</v>
       </c>
       <c r="D341">
-        <v>873.8347486490882</v>
+        <v>873.8347486490883</v>
       </c>
       <c r="E341">
         <v>3712.7833</v>
@@ -7223,7 +7223,7 @@
         <v>20151224</v>
       </c>
       <c r="D342">
-        <v>780.6256855239333</v>
+        <v>780.6256855239332</v>
       </c>
       <c r="E342">
         <v>3858.1348</v>
@@ -7243,7 +7243,7 @@
         <v>20151231</v>
       </c>
       <c r="D343">
-        <v>844.1344663006765</v>
+        <v>844.1344663006766</v>
       </c>
       <c r="E343">
         <v>3760.9039</v>
@@ -7443,7 +7443,7 @@
         <v>20160317</v>
       </c>
       <c r="D353">
-        <v>1519.254195942504</v>
+        <v>1519.254195942505</v>
       </c>
       <c r="E353">
         <v>3096.8076</v>
@@ -7723,7 +7723,7 @@
         <v>20160630</v>
       </c>
       <c r="D367">
-        <v>1450.047735977656</v>
+        <v>1450.047735977655</v>
       </c>
       <c r="E367">
         <v>3152.8331</v>
@@ -7863,7 +7863,7 @@
         <v>20160818</v>
       </c>
       <c r="D374">
-        <v>1192.640296079984</v>
+        <v>1192.640296079983</v>
       </c>
       <c r="E374">
         <v>3369.9472</v>
@@ -7963,7 +7963,7 @@
         <v>20160929</v>
       </c>
       <c r="D379">
-        <v>1353.383783182575</v>
+        <v>1353.383783182574</v>
       </c>
       <c r="E379">
         <v>3234.857</v>
@@ -8023,7 +8023,7 @@
         <v>20161027</v>
       </c>
       <c r="D382">
-        <v>1219.472252600962</v>
+        <v>1219.472252600963</v>
       </c>
       <c r="E382">
         <v>3351.4603</v>
@@ -8123,7 +8123,7 @@
         <v>20161201</v>
       </c>
       <c r="D387">
-        <v>1038.277232560736</v>
+        <v>1038.277232560735</v>
       </c>
       <c r="E387">
         <v>3543.9555</v>
@@ -8603,7 +8603,7 @@
         <v>20170525</v>
       </c>
       <c r="D411">
-        <v>1184.43345359564</v>
+        <v>1184.433453595641</v>
       </c>
       <c r="E411">
         <v>3414.3992</v>
@@ -8743,7 +8743,7 @@
         <v>20170713</v>
       </c>
       <c r="D418">
-        <v>973.8905674529954</v>
+        <v>973.8905674529952</v>
       </c>
       <c r="E418">
         <v>3656.3502</v>
@@ -8763,7 +8763,7 @@
         <v>20170720</v>
       </c>
       <c r="D419">
-        <v>925.4127467227513</v>
+        <v>925.4127467227512</v>
       </c>
       <c r="E419">
         <v>3725.1436</v>
@@ -8783,7 +8783,7 @@
         <v>20170727</v>
       </c>
       <c r="D420">
-        <v>945.8267586784116</v>
+        <v>945.8267586784115</v>
       </c>
       <c r="E420">
         <v>3700.8558</v>
@@ -8803,7 +8803,7 @@
         <v>20170803</v>
       </c>
       <c r="D421">
-        <v>906.9341664689238</v>
+        <v>906.9341664689236</v>
       </c>
       <c r="E421">
         <v>3755.1081</v>
@@ -8863,7 +8863,7 @@
         <v>20170824</v>
       </c>
       <c r="D424">
-        <v>909.4679618076785</v>
+        <v>909.4679618076784</v>
       </c>
       <c r="E424">
         <v>3755.8902</v>
@@ -8983,7 +8983,7 @@
         <v>20171012</v>
       </c>
       <c r="D430">
-        <v>827.5991604780423</v>
+        <v>827.5991604780422</v>
       </c>
       <c r="E430">
         <v>3902.0156</v>
@@ -9043,7 +9043,7 @@
         <v>20171102</v>
       </c>
       <c r="D433">
-        <v>782.8666592495031</v>
+        <v>782.8666592495032</v>
       </c>
       <c r="E433">
         <v>3994.0946</v>
@@ -9063,7 +9063,7 @@
         <v>20171109</v>
       </c>
       <c r="D434">
-        <v>757.4662848488259</v>
+        <v>757.466284848826</v>
       </c>
       <c r="E434">
         <v>4043.0663</v>
@@ -9083,7 +9083,7 @@
         <v>20171116</v>
       </c>
       <c r="D435">
-        <v>750.6783200622134</v>
+        <v>750.6783200622135</v>
       </c>
       <c r="E435">
         <v>4063.4943</v>
@@ -9143,7 +9143,7 @@
         <v>20171207</v>
       </c>
       <c r="D438">
-        <v>790.3169999403655</v>
+        <v>790.3169999403656</v>
       </c>
       <c r="E438">
         <v>4003.5826</v>
@@ -9203,7 +9203,7 @@
         <v>20171228</v>
       </c>
       <c r="D441">
-        <v>799.8099128054463</v>
+        <v>799.8099128054462</v>
       </c>
       <c r="E441">
         <v>3992.997</v>
@@ -9223,7 +9223,7 @@
         <v>20180104</v>
       </c>
       <c r="D442">
-        <v>732.1943160702847</v>
+        <v>732.1943160702846</v>
       </c>
       <c r="E442">
         <v>4114.1213</v>
@@ -9283,7 +9283,7 @@
         <v>20180125</v>
       </c>
       <c r="D445">
-        <v>618.0944434469718</v>
+        <v>618.0944434469717</v>
       </c>
       <c r="E445">
         <v>4381.9768</v>
@@ -9343,7 +9343,7 @@
         <v>20180222</v>
       </c>
       <c r="D448">
-        <v>803.5183655719999</v>
+        <v>803.5183655719998</v>
       </c>
       <c r="E448">
         <v>4020.9731</v>
@@ -9363,7 +9363,7 @@
         <v>20180301</v>
       </c>
       <c r="D449">
-        <v>820.4270390856293</v>
+        <v>820.4270390856292</v>
       </c>
       <c r="E449">
         <v>3994.8686</v>
@@ -9423,7 +9423,7 @@
         <v>20180322</v>
       </c>
       <c r="D452">
-        <v>783.4378778121529</v>
+        <v>783.437877812153</v>
       </c>
       <c r="E452">
         <v>4062.0668</v>
@@ -9443,7 +9443,7 @@
         <v>20180329</v>
       </c>
       <c r="D453">
-        <v>918.0072844687541</v>
+        <v>918.0072844687542</v>
       </c>
       <c r="E453">
         <v>3854.5914</v>
@@ -9463,7 +9463,7 @@
         <v>20180412</v>
       </c>
       <c r="D454">
-        <v>863.3635430236995</v>
+        <v>863.3635430236997</v>
       </c>
       <c r="E454">
         <v>3935.673</v>
@@ -9503,7 +9503,7 @@
         <v>20180426</v>
       </c>
       <c r="D456">
-        <v>943.6264104852698</v>
+        <v>943.6264104852697</v>
       </c>
       <c r="E456">
         <v>3823.3921</v>
@@ -9543,7 +9543,7 @@
         <v>20180510</v>
       </c>
       <c r="D458">
-        <v>902.6275094420189</v>
+        <v>902.6275094420188</v>
       </c>
       <c r="E458">
         <v>3882.8357</v>
@@ -9583,7 +9583,7 @@
         <v>20180524</v>
       </c>
       <c r="D460">
-        <v>925.4866882849992</v>
+        <v>925.4866882849993</v>
       </c>
       <c r="E460">
         <v>3853.2916</v>
@@ -9643,7 +9643,7 @@
         <v>20180614</v>
       </c>
       <c r="D463">
-        <v>987.4326981022176</v>
+        <v>987.4326981022178</v>
       </c>
       <c r="E463">
         <v>3774.6396</v>
@@ -9823,7 +9823,7 @@
         <v>20180816</v>
       </c>
       <c r="D472">
-        <v>1552.306256380993</v>
+        <v>1552.306256380994</v>
       </c>
       <c r="E472">
         <v>3251.8556</v>
@@ -9923,7 +9923,7 @@
         <v>20180920</v>
       </c>
       <c r="D477">
-        <v>1467.956185909607</v>
+        <v>1467.956185909606</v>
       </c>
       <c r="E477">
         <v>3314.8758</v>
@@ -10103,7 +10103,7 @@
         <v>20181129</v>
       </c>
       <c r="D486">
-        <v>1637.293177915283</v>
+        <v>1637.293177915282</v>
       </c>
       <c r="E486">
         <v>3198.8259</v>
@@ -10363,7 +10363,7 @@
         <v>20190307</v>
       </c>
       <c r="D499">
-        <v>952.3995347653724</v>
+        <v>952.3995347653723</v>
       </c>
       <c r="E499">
         <v>3841.1456</v>
@@ -10403,7 +10403,7 @@
         <v>20190321</v>
       </c>
       <c r="D501">
-        <v>955.3042937247885</v>
+        <v>955.3042937247884</v>
       </c>
       <c r="E501">
         <v>3840.2783</v>
@@ -10463,7 +10463,7 @@
         <v>20190411</v>
       </c>
       <c r="D504">
-        <v>800.076164333222</v>
+        <v>800.0761643332221</v>
       </c>
       <c r="E504">
         <v>4083.4618</v>
@@ -10663,7 +10663,7 @@
         <v>20190627</v>
       </c>
       <c r="D514">
-        <v>994.7713183575801</v>
+        <v>994.77131835758</v>
       </c>
       <c r="E514">
         <v>3807.5376</v>
@@ -10743,7 +10743,7 @@
         <v>20190725</v>
       </c>
       <c r="D518">
-        <v>987.26596381885</v>
+        <v>987.2659638188499</v>
       </c>
       <c r="E518">
         <v>3821.3898</v>
@@ -10883,7 +10883,7 @@
         <v>20190912</v>
       </c>
       <c r="D525">
-        <v>902.5465244392904</v>
+        <v>902.5465244392902</v>
       </c>
       <c r="E525">
         <v>3944.6917</v>
@@ -10903,7 +10903,7 @@
         <v>20190919</v>
       </c>
       <c r="D526">
-        <v>917.8185936034444</v>
+        <v>917.8185936034445</v>
       </c>
       <c r="E526">
         <v>3923.9631</v>
@@ -10923,7 +10923,7 @@
         <v>20190926</v>
       </c>
       <c r="D527">
-        <v>946.8011634891084</v>
+        <v>946.8011634891085</v>
       </c>
       <c r="E527">
         <v>3884.7022</v>
@@ -10963,7 +10963,7 @@
         <v>20191017</v>
       </c>
       <c r="D529">
-        <v>916.424439874679</v>
+        <v>916.4244398746791</v>
       </c>
       <c r="E529">
         <v>3929.386</v>
@@ -10983,7 +10983,7 @@
         <v>20191024</v>
       </c>
       <c r="D530">
-        <v>954.269153407776</v>
+        <v>954.2691534077761</v>
       </c>
       <c r="E530">
         <v>3877.9239</v>
